--- a/Output/Results_Cumulative_welfare/cld_all_data.xlsx
+++ b/Output/Results_Cumulative_welfare/cld_all_data.xlsx
@@ -468,22 +468,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>RTR 100</t>
+          <t>WTR 50</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>ab</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>RTR</t>
+          <t>WTR</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
     </row>
@@ -495,12 +495,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>RTR 150</t>
+          <t>RTR 50</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -510,7 +510,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>50</t>
         </is>
       </c>
     </row>
@@ -522,22 +522,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>RTR 50</t>
+          <t>WTR 100</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>b</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>RTR</t>
+          <t>WTR</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
     </row>
@@ -576,17 +576,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>WTR 100</t>
+          <t>RTR 100</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>c</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>WTR</t>
+          <t>RTR</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -603,22 +603,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>WTR 50</t>
+          <t>RTR 150</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>bc</t>
+          <t>c</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>WTR</t>
+          <t>RTR</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>150</t>
         </is>
       </c>
     </row>
